--- a/ig/ft/#3-add-narative/StructureDefinition-cds-fr-patient.xlsx
+++ b/ig/ft/#3-add-narative/StructureDefinition-cds-fr-patient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-15T16:45:49+00:00</t>
+    <t>2024-02-15T16:51:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ft/#3-add-narative/StructureDefinition-cds-fr-patient.xlsx
+++ b/ig/ft/#3-add-narative/StructureDefinition-cds-fr-patient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-15T16:51:34+00:00</t>
+    <t>2024-02-15T17:14:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ft/#3-add-narative/StructureDefinition-cds-fr-patient.xlsx
+++ b/ig/ft/#3-add-narative/StructureDefinition-cds-fr-patient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-15T17:14:29+00:00</t>
+    <t>2024-02-16T10:53:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ft/#3-add-narative/StructureDefinition-cds-fr-patient.xlsx
+++ b/ig/ft/#3-add-narative/StructureDefinition-cds-fr-patient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-16T10:53:34+00:00</t>
+    <t>2024-02-16T11:00:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ft/#3-add-narative/StructureDefinition-cds-fr-patient.xlsx
+++ b/ig/ft/#3-add-narative/StructureDefinition-cds-fr-patient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-16T11:00:57+00:00</t>
+    <t>2024-02-16T16:08:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
